--- a/Aufgaben/Aufgaben/pn_export_2.xlsx
+++ b/Aufgaben/Aufgaben/pn_export_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dokumente\KI-Games-Ue\Aufgaben\Aufgaben\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2BFA54AC-D5C0-4A9B-80A6-588FEDCA15DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{74E442BB-314F-4AA0-A0DA-B755873FDA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360"/>
   </bookViews>
@@ -20,7 +20,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Parameter:</t>
+  </si>
+  <si>
+    <t>Oktavenanz.</t>
+  </si>
+  <si>
+    <t>Startwert</t>
+  </si>
+  <si>
+    <t>Persistenz</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -580,8 +593,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="de-DE"/>
-              <a:t>Perlin Noise 2</a:t>
+              <a:t>4</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Oktaven, Startwert 1, Persistenz 0.5</a:t>
+            </a:r>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -637,306 +655,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>pn_export!$B$1:$CV$1</c:f>
+              <c:f>pn_export!$A$3:$CV$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="99"/>
+                <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.76936199999999999</c:v>
+                  <c:v>0.30399900000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76937</c:v>
+                  <c:v>0.304199</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.76939100000000005</c:v>
+                  <c:v>0.30540800000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.769432</c:v>
+                  <c:v>0.30815999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.76949699999999999</c:v>
+                  <c:v>0.31255300000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.76959299999999997</c:v>
+                  <c:v>0.31835400000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76972399999999996</c:v>
+                  <c:v>0.32509100000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.769895</c:v>
+                  <c:v>0.33215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77010900000000004</c:v>
+                  <c:v>0.33887800000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.77037100000000003</c:v>
+                  <c:v>0.34467500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.77068400000000004</c:v>
+                  <c:v>0.34909200000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.77105199999999996</c:v>
+                  <c:v>0.351933</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.77147500000000002</c:v>
+                  <c:v>0.35334500000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.77195899999999995</c:v>
+                  <c:v>0.35388500000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.77250300000000005</c:v>
+                  <c:v>0.35375899999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.77311099999999999</c:v>
+                  <c:v>0.35264000000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.773783</c:v>
+                  <c:v>0.35035100000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.77452200000000004</c:v>
+                  <c:v>0.34687000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.77532699999999999</c:v>
+                  <c:v>0.34229300000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.7762</c:v>
+                  <c:v>0.33680300000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.77714099999999997</c:v>
+                  <c:v>0.33063599999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.77815000000000001</c:v>
+                  <c:v>0.32405</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.77922800000000003</c:v>
+                  <c:v>0.31728800000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.78037299999999998</c:v>
+                  <c:v>0.31054799999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.78158499999999997</c:v>
+                  <c:v>0.30394900000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.78286299999999998</c:v>
+                  <c:v>0.29749700000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.78420699999999999</c:v>
+                  <c:v>0.29098099999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.78561599999999998</c:v>
+                  <c:v>0.28389500000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.78708699999999998</c:v>
+                  <c:v>0.27593400000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.78861899999999996</c:v>
+                  <c:v>0.26705200000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.790211</c:v>
+                  <c:v>0.257407</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.79186000000000001</c:v>
+                  <c:v>0.24730099999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.79356499999999996</c:v>
+                  <c:v>0.23711599999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.795323</c:v>
+                  <c:v>0.22726299999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.79713199999999995</c:v>
+                  <c:v>0.21811700000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.79898899999999995</c:v>
+                  <c:v>0.20996100000000001</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.80089200000000005</c:v>
+                  <c:v>0.202926</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.80283800000000005</c:v>
+                  <c:v>0.196932</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.80482399999999998</c:v>
+                  <c:v>0.19165699999999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.80684699999999998</c:v>
+                  <c:v>0.18711700000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.80890499999999999</c:v>
+                  <c:v>0.183693</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.81099200000000005</c:v>
+                  <c:v>0.181556</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.81310800000000005</c:v>
+                  <c:v>0.18069199999999999</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.81524799999999997</c:v>
+                  <c:v>0.18094099999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.81740900000000005</c:v>
+                  <c:v>0.18204300000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.81958699999999995</c:v>
+                  <c:v>0.18368399999999999</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.82177900000000004</c:v>
+                  <c:v>0.18554100000000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.82398199999999999</c:v>
+                  <c:v>0.18732499999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.82619200000000004</c:v>
+                  <c:v>0.18882599999999999</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.82840599999999998</c:v>
+                  <c:v>0.18996299999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.83062000000000002</c:v>
+                  <c:v>0.19081999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.83282999999999996</c:v>
+                  <c:v>0.191579</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.83503300000000003</c:v>
+                  <c:v>0.19214999999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.837225</c:v>
+                  <c:v>0.19245999999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.83940400000000004</c:v>
+                  <c:v>0.19253300000000001</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.84156399999999998</c:v>
+                  <c:v>0.192472</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.84370400000000001</c:v>
+                  <c:v>0.19242999999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.84582000000000002</c:v>
+                  <c:v>0.19259200000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.847908</c:v>
+                  <c:v>0.19314500000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.84996499999999997</c:v>
+                  <c:v>0.19425500000000001</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.85198799999999997</c:v>
+                  <c:v>0.196047</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.85397400000000001</c:v>
+                  <c:v>0.198576</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.85592000000000001</c:v>
+                  <c:v>0.20180600000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.857823</c:v>
+                  <c:v>0.205596</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.85968</c:v>
+                  <c:v>0.20994299999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.86148899999999995</c:v>
+                  <c:v>0.21499099999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.86324699999999999</c:v>
+                  <c:v>0.22079399999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.86495200000000005</c:v>
+                  <c:v>0.227328</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.86660199999999998</c:v>
+                  <c:v>0.23450299999999999</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.86819299999999999</c:v>
+                  <c:v>0.24218700000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.869726</c:v>
+                  <c:v>0.250224</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.871197</c:v>
+                  <c:v>0.25845400000000002</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.87260499999999996</c:v>
+                  <c:v>0.26673000000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.87394899999999998</c:v>
+                  <c:v>0.27493800000000002</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.87522699999999998</c:v>
+                  <c:v>0.28301900000000002</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.87644</c:v>
+                  <c:v>0.29098299999999999</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.87758400000000003</c:v>
+                  <c:v>0.29894999999999999</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.87866200000000005</c:v>
+                  <c:v>0.30714000000000002</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.87967099999999998</c:v>
+                  <c:v>0.315687</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.88061199999999995</c:v>
+                  <c:v>0.32462299999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.88148499999999996</c:v>
+                  <c:v>0.333897</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.88229000000000002</c:v>
+                  <c:v>0.34339700000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.88302899999999995</c:v>
+                  <c:v>0.35297000000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.88370099999999996</c:v>
+                  <c:v>0.36244300000000002</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.88430900000000001</c:v>
+                  <c:v>0.37164700000000001</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.88485400000000003</c:v>
+                  <c:v>0.38043300000000002</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.88533700000000004</c:v>
+                  <c:v>0.38869599999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.88576100000000002</c:v>
+                  <c:v>0.39639400000000002</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.88612800000000003</c:v>
+                  <c:v>0.40355400000000002</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.88644100000000003</c:v>
+                  <c:v>0.40993400000000002</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.88670300000000002</c:v>
+                  <c:v>0.41512199999999999</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.88691699999999996</c:v>
+                  <c:v>0.41892800000000002</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.88708799999999999</c:v>
+                  <c:v>0.42135400000000001</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.88721899999999998</c:v>
+                  <c:v>0.42255100000000001</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.88731499999999996</c:v>
+                  <c:v>0.42277399999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.88738099999999998</c:v>
+                  <c:v>0.42233799999999999</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.88742100000000002</c:v>
+                  <c:v>0.421572</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.88744199999999995</c:v>
+                  <c:v>0.42077700000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.88744999999999996</c:v>
+                  <c:v>0.42017700000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.419879</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -944,7 +965,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D0E0-4FC4-9147-5A1BA810188A}"/>
+              <c16:uniqueId val="{00000000-7CE6-43E8-8A76-40E8E8C7D95E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -957,17 +978,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1769315359"/>
-        <c:axId val="1769323263"/>
+        <c:axId val="1097459023"/>
+        <c:axId val="1097458191"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1769315359"/>
+        <c:axId val="1097459023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1004,7 +1024,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1769323263"/>
+        <c:crossAx val="1097458191"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1012,7 +1032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1769323263"/>
+        <c:axId val="1097458191"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1083,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1769315359"/>
+        <c:crossAx val="1097459023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1077,6 +1097,13 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1672,23 +1699,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>117474</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>711199</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>203199</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Diagramm 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C727CCF-8B6B-44C0-A4F5-D608B18003A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2813243-936F-46D4-A12E-38193462F955}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2006,311 +2033,339 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CV1"/>
+  <dimension ref="A1:CV3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:100" x14ac:dyDescent="0.4">
-      <c r="B1">
-        <v>0.76936199999999999</v>
-      </c>
-      <c r="C1">
-        <v>0.76937</v>
-      </c>
-      <c r="D1">
-        <v>0.76939100000000005</v>
-      </c>
-      <c r="E1">
-        <v>0.769432</v>
-      </c>
-      <c r="F1">
-        <v>0.76949699999999999</v>
-      </c>
-      <c r="G1">
-        <v>0.76959299999999997</v>
-      </c>
-      <c r="H1">
-        <v>0.76972399999999996</v>
-      </c>
-      <c r="I1">
-        <v>0.769895</v>
-      </c>
-      <c r="J1">
-        <v>0.77010900000000004</v>
-      </c>
-      <c r="K1">
-        <v>0.77037100000000003</v>
-      </c>
-      <c r="L1">
-        <v>0.77068400000000004</v>
-      </c>
-      <c r="M1">
-        <v>0.77105199999999996</v>
-      </c>
-      <c r="N1">
-        <v>0.77147500000000002</v>
-      </c>
-      <c r="O1">
-        <v>0.77195899999999995</v>
-      </c>
-      <c r="P1">
-        <v>0.77250300000000005</v>
-      </c>
-      <c r="Q1">
-        <v>0.77311099999999999</v>
-      </c>
-      <c r="R1">
-        <v>0.773783</v>
-      </c>
-      <c r="S1">
-        <v>0.77452200000000004</v>
-      </c>
-      <c r="T1">
-        <v>0.77532699999999999</v>
-      </c>
-      <c r="U1">
-        <v>0.7762</v>
-      </c>
-      <c r="V1">
-        <v>0.77714099999999997</v>
-      </c>
-      <c r="W1">
-        <v>0.77815000000000001</v>
-      </c>
-      <c r="X1">
-        <v>0.77922800000000003</v>
-      </c>
-      <c r="Y1">
-        <v>0.78037299999999998</v>
-      </c>
-      <c r="Z1">
-        <v>0.78158499999999997</v>
-      </c>
-      <c r="AA1">
-        <v>0.78286299999999998</v>
-      </c>
-      <c r="AB1">
-        <v>0.78420699999999999</v>
-      </c>
-      <c r="AC1">
-        <v>0.78561599999999998</v>
-      </c>
-      <c r="AD1">
-        <v>0.78708699999999998</v>
-      </c>
-      <c r="AE1">
-        <v>0.78861899999999996</v>
-      </c>
-      <c r="AF1">
-        <v>0.790211</v>
-      </c>
-      <c r="AG1">
-        <v>0.79186000000000001</v>
-      </c>
-      <c r="AH1">
-        <v>0.79356499999999996</v>
-      </c>
-      <c r="AI1">
-        <v>0.795323</v>
-      </c>
-      <c r="AJ1">
-        <v>0.79713199999999995</v>
-      </c>
-      <c r="AK1">
-        <v>0.79898899999999995</v>
-      </c>
-      <c r="AL1">
-        <v>0.80089200000000005</v>
-      </c>
-      <c r="AM1">
-        <v>0.80283800000000005</v>
-      </c>
-      <c r="AN1">
-        <v>0.80482399999999998</v>
-      </c>
-      <c r="AO1">
-        <v>0.80684699999999998</v>
-      </c>
-      <c r="AP1">
-        <v>0.80890499999999999</v>
-      </c>
-      <c r="AQ1">
-        <v>0.81099200000000005</v>
-      </c>
-      <c r="AR1">
-        <v>0.81310800000000005</v>
-      </c>
-      <c r="AS1">
-        <v>0.81524799999999997</v>
-      </c>
-      <c r="AT1">
-        <v>0.81740900000000005</v>
-      </c>
-      <c r="AU1">
-        <v>0.81958699999999995</v>
-      </c>
-      <c r="AV1">
-        <v>0.82177900000000004</v>
-      </c>
-      <c r="AW1">
-        <v>0.82398199999999999</v>
-      </c>
-      <c r="AX1">
-        <v>0.82619200000000004</v>
-      </c>
-      <c r="AY1">
-        <v>0.82840599999999998</v>
-      </c>
-      <c r="AZ1">
-        <v>0.83062000000000002</v>
-      </c>
-      <c r="BA1">
-        <v>0.83282999999999996</v>
-      </c>
-      <c r="BB1">
-        <v>0.83503300000000003</v>
-      </c>
-      <c r="BC1">
-        <v>0.837225</v>
-      </c>
-      <c r="BD1">
-        <v>0.83940400000000004</v>
-      </c>
-      <c r="BE1">
-        <v>0.84156399999999998</v>
-      </c>
-      <c r="BF1">
-        <v>0.84370400000000001</v>
-      </c>
-      <c r="BG1">
-        <v>0.84582000000000002</v>
-      </c>
-      <c r="BH1">
-        <v>0.847908</v>
-      </c>
-      <c r="BI1">
-        <v>0.84996499999999997</v>
-      </c>
-      <c r="BJ1">
-        <v>0.85198799999999997</v>
-      </c>
-      <c r="BK1">
-        <v>0.85397400000000001</v>
-      </c>
-      <c r="BL1">
-        <v>0.85592000000000001</v>
-      </c>
-      <c r="BM1">
-        <v>0.857823</v>
-      </c>
-      <c r="BN1">
-        <v>0.85968</v>
-      </c>
-      <c r="BO1">
-        <v>0.86148899999999995</v>
-      </c>
-      <c r="BP1">
-        <v>0.86324699999999999</v>
-      </c>
-      <c r="BQ1">
-        <v>0.86495200000000005</v>
-      </c>
-      <c r="BR1">
-        <v>0.86660199999999998</v>
-      </c>
-      <c r="BS1">
-        <v>0.86819299999999999</v>
-      </c>
-      <c r="BT1">
-        <v>0.869726</v>
-      </c>
-      <c r="BU1">
-        <v>0.871197</v>
-      </c>
-      <c r="BV1">
-        <v>0.87260499999999996</v>
-      </c>
-      <c r="BW1">
-        <v>0.87394899999999998</v>
-      </c>
-      <c r="BX1">
-        <v>0.87522699999999998</v>
-      </c>
-      <c r="BY1">
-        <v>0.87644</v>
-      </c>
-      <c r="BZ1">
-        <v>0.87758400000000003</v>
-      </c>
-      <c r="CA1">
-        <v>0.87866200000000005</v>
-      </c>
-      <c r="CB1">
-        <v>0.87967099999999998</v>
-      </c>
-      <c r="CC1">
-        <v>0.88061199999999995</v>
-      </c>
-      <c r="CD1">
-        <v>0.88148499999999996</v>
-      </c>
-      <c r="CE1">
-        <v>0.88229000000000002</v>
-      </c>
-      <c r="CF1">
-        <v>0.88302899999999995</v>
-      </c>
-      <c r="CG1">
-        <v>0.88370099999999996</v>
-      </c>
-      <c r="CH1">
-        <v>0.88430900000000001</v>
-      </c>
-      <c r="CI1">
-        <v>0.88485400000000003</v>
-      </c>
-      <c r="CJ1">
-        <v>0.88533700000000004</v>
-      </c>
-      <c r="CK1">
-        <v>0.88576100000000002</v>
-      </c>
-      <c r="CL1">
-        <v>0.88612800000000003</v>
-      </c>
-      <c r="CM1">
-        <v>0.88644100000000003</v>
-      </c>
-      <c r="CN1">
-        <v>0.88670300000000002</v>
-      </c>
-      <c r="CO1">
-        <v>0.88691699999999996</v>
-      </c>
-      <c r="CP1">
-        <v>0.88708799999999999</v>
-      </c>
-      <c r="CQ1">
-        <v>0.88721899999999998</v>
-      </c>
-      <c r="CR1">
-        <v>0.88731499999999996</v>
-      </c>
-      <c r="CS1">
-        <v>0.88738099999999998</v>
-      </c>
-      <c r="CT1">
-        <v>0.88742100000000002</v>
-      </c>
-      <c r="CU1">
-        <v>0.88744199999999995</v>
-      </c>
-      <c r="CV1">
-        <v>0.88744999999999996</v>
+    <row r="1" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:100" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>0.30399900000000002</v>
+      </c>
+      <c r="B3">
+        <v>0.304199</v>
+      </c>
+      <c r="C3">
+        <v>0.30540800000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.30815999999999999</v>
+      </c>
+      <c r="E3">
+        <v>0.31255300000000003</v>
+      </c>
+      <c r="F3">
+        <v>0.31835400000000003</v>
+      </c>
+      <c r="G3">
+        <v>0.32509100000000002</v>
+      </c>
+      <c r="H3">
+        <v>0.33215</v>
+      </c>
+      <c r="I3">
+        <v>0.33887800000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.34467500000000001</v>
+      </c>
+      <c r="K3">
+        <v>0.34909200000000001</v>
+      </c>
+      <c r="L3">
+        <v>0.351933</v>
+      </c>
+      <c r="M3">
+        <v>0.35334500000000002</v>
+      </c>
+      <c r="N3">
+        <v>0.35388500000000001</v>
+      </c>
+      <c r="O3">
+        <v>0.35375899999999999</v>
+      </c>
+      <c r="P3">
+        <v>0.35264000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>0.35035100000000002</v>
+      </c>
+      <c r="R3">
+        <v>0.34687000000000001</v>
+      </c>
+      <c r="S3">
+        <v>0.34229300000000001</v>
+      </c>
+      <c r="T3">
+        <v>0.33680300000000002</v>
+      </c>
+      <c r="U3">
+        <v>0.33063599999999999</v>
+      </c>
+      <c r="V3">
+        <v>0.32405</v>
+      </c>
+      <c r="W3">
+        <v>0.31728800000000001</v>
+      </c>
+      <c r="X3">
+        <v>0.31054799999999999</v>
+      </c>
+      <c r="Y3">
+        <v>0.30394900000000002</v>
+      </c>
+      <c r="Z3">
+        <v>0.29749700000000001</v>
+      </c>
+      <c r="AA3">
+        <v>0.29098099999999999</v>
+      </c>
+      <c r="AB3">
+        <v>0.28389500000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.27593400000000001</v>
+      </c>
+      <c r="AD3">
+        <v>0.26705200000000001</v>
+      </c>
+      <c r="AE3">
+        <v>0.257407</v>
+      </c>
+      <c r="AF3">
+        <v>0.24730099999999999</v>
+      </c>
+      <c r="AG3">
+        <v>0.23711599999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.22726299999999999</v>
+      </c>
+      <c r="AI3">
+        <v>0.21811700000000001</v>
+      </c>
+      <c r="AJ3">
+        <v>0.20996100000000001</v>
+      </c>
+      <c r="AK3">
+        <v>0.202926</v>
+      </c>
+      <c r="AL3">
+        <v>0.196932</v>
+      </c>
+      <c r="AM3">
+        <v>0.19165699999999999</v>
+      </c>
+      <c r="AN3">
+        <v>0.18711700000000001</v>
+      </c>
+      <c r="AO3">
+        <v>0.183693</v>
+      </c>
+      <c r="AP3">
+        <v>0.181556</v>
+      </c>
+      <c r="AQ3">
+        <v>0.18069199999999999</v>
+      </c>
+      <c r="AR3">
+        <v>0.18094099999999999</v>
+      </c>
+      <c r="AS3">
+        <v>0.18204300000000001</v>
+      </c>
+      <c r="AT3">
+        <v>0.18368399999999999</v>
+      </c>
+      <c r="AU3">
+        <v>0.18554100000000001</v>
+      </c>
+      <c r="AV3">
+        <v>0.18732499999999999</v>
+      </c>
+      <c r="AW3">
+        <v>0.18882599999999999</v>
+      </c>
+      <c r="AX3">
+        <v>0.18996299999999999</v>
+      </c>
+      <c r="AY3">
+        <v>0.19081999999999999</v>
+      </c>
+      <c r="AZ3">
+        <v>0.191579</v>
+      </c>
+      <c r="BA3">
+        <v>0.19214999999999999</v>
+      </c>
+      <c r="BB3">
+        <v>0.19245999999999999</v>
+      </c>
+      <c r="BC3">
+        <v>0.19253300000000001</v>
+      </c>
+      <c r="BD3">
+        <v>0.192472</v>
+      </c>
+      <c r="BE3">
+        <v>0.19242999999999999</v>
+      </c>
+      <c r="BF3">
+        <v>0.19259200000000001</v>
+      </c>
+      <c r="BG3">
+        <v>0.19314500000000001</v>
+      </c>
+      <c r="BH3">
+        <v>0.19425500000000001</v>
+      </c>
+      <c r="BI3">
+        <v>0.196047</v>
+      </c>
+      <c r="BJ3">
+        <v>0.198576</v>
+      </c>
+      <c r="BK3">
+        <v>0.20180600000000001</v>
+      </c>
+      <c r="BL3">
+        <v>0.205596</v>
+      </c>
+      <c r="BM3">
+        <v>0.20994299999999999</v>
+      </c>
+      <c r="BN3">
+        <v>0.21499099999999999</v>
+      </c>
+      <c r="BO3">
+        <v>0.22079399999999999</v>
+      </c>
+      <c r="BP3">
+        <v>0.227328</v>
+      </c>
+      <c r="BQ3">
+        <v>0.23450299999999999</v>
+      </c>
+      <c r="BR3">
+        <v>0.24218700000000001</v>
+      </c>
+      <c r="BS3">
+        <v>0.250224</v>
+      </c>
+      <c r="BT3">
+        <v>0.25845400000000002</v>
+      </c>
+      <c r="BU3">
+        <v>0.26673000000000002</v>
+      </c>
+      <c r="BV3">
+        <v>0.27493800000000002</v>
+      </c>
+      <c r="BW3">
+        <v>0.28301900000000002</v>
+      </c>
+      <c r="BX3">
+        <v>0.29098299999999999</v>
+      </c>
+      <c r="BY3">
+        <v>0.29894999999999999</v>
+      </c>
+      <c r="BZ3">
+        <v>0.30714000000000002</v>
+      </c>
+      <c r="CA3">
+        <v>0.315687</v>
+      </c>
+      <c r="CB3">
+        <v>0.32462299999999999</v>
+      </c>
+      <c r="CC3">
+        <v>0.333897</v>
+      </c>
+      <c r="CD3">
+        <v>0.34339700000000001</v>
+      </c>
+      <c r="CE3">
+        <v>0.35297000000000001</v>
+      </c>
+      <c r="CF3">
+        <v>0.36244300000000002</v>
+      </c>
+      <c r="CG3">
+        <v>0.37164700000000001</v>
+      </c>
+      <c r="CH3">
+        <v>0.38043300000000002</v>
+      </c>
+      <c r="CI3">
+        <v>0.38869599999999999</v>
+      </c>
+      <c r="CJ3">
+        <v>0.39639400000000002</v>
+      </c>
+      <c r="CK3">
+        <v>0.40355400000000002</v>
+      </c>
+      <c r="CL3">
+        <v>0.40993400000000002</v>
+      </c>
+      <c r="CM3">
+        <v>0.41512199999999999</v>
+      </c>
+      <c r="CN3">
+        <v>0.41892800000000002</v>
+      </c>
+      <c r="CO3">
+        <v>0.42135400000000001</v>
+      </c>
+      <c r="CP3">
+        <v>0.42255100000000001</v>
+      </c>
+      <c r="CQ3">
+        <v>0.42277399999999998</v>
+      </c>
+      <c r="CR3">
+        <v>0.42233799999999999</v>
+      </c>
+      <c r="CS3">
+        <v>0.421572</v>
+      </c>
+      <c r="CT3">
+        <v>0.42077700000000001</v>
+      </c>
+      <c r="CU3">
+        <v>0.42017700000000002</v>
+      </c>
+      <c r="CV3">
+        <v>0.419879</v>
       </c>
     </row>
   </sheetData>
